--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3252,28 +3252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>945.0196393379122</v>
+        <v>1117.60165439301</v>
       </c>
       <c r="AB2" t="n">
-        <v>1293.017561866194</v>
+        <v>1529.15188864573</v>
       </c>
       <c r="AC2" t="n">
-        <v>1169.613780523229</v>
+        <v>1383.211778571535</v>
       </c>
       <c r="AD2" t="n">
-        <v>945019.6393379122</v>
+        <v>1117601.65439301</v>
       </c>
       <c r="AE2" t="n">
-        <v>1293017.561866194</v>
+        <v>1529151.88864573</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.89339789591984e-07</v>
+        <v>1.137963085381648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.50260416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1169613.780523229</v>
+        <v>1383211.778571535</v>
       </c>
     </row>
     <row r="3">
@@ -3358,28 +3358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>680.3997149006507</v>
+        <v>809.8149804868824</v>
       </c>
       <c r="AB3" t="n">
-        <v>930.9529070439906</v>
+        <v>1108.024582817642</v>
       </c>
       <c r="AC3" t="n">
-        <v>842.1040681963227</v>
+        <v>1002.276271755794</v>
       </c>
       <c r="AD3" t="n">
-        <v>680399.7149006507</v>
+        <v>809814.9804868824</v>
       </c>
       <c r="AE3" t="n">
-        <v>930952.9070439907</v>
+        <v>1108024.582817642</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.01211114576982e-06</v>
+        <v>1.459124622090476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.02604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>842104.0681963228</v>
+        <v>1002276.271755794</v>
       </c>
     </row>
     <row r="4">
@@ -3464,28 +3464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>600.9675352527978</v>
+        <v>721.8346843895667</v>
       </c>
       <c r="AB4" t="n">
-        <v>822.2702945493534</v>
+        <v>987.6460602805668</v>
       </c>
       <c r="AC4" t="n">
-        <v>743.793971701169</v>
+        <v>893.3865064573404</v>
       </c>
       <c r="AD4" t="n">
-        <v>600967.5352527978</v>
+        <v>721834.6843895668</v>
       </c>
       <c r="AE4" t="n">
-        <v>822270.2945493534</v>
+        <v>987646.0602805668</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.100505438083889e-06</v>
+        <v>1.586559527739715e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.6171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>743793.9717011689</v>
+        <v>893386.5064573403</v>
       </c>
     </row>
     <row r="5">
@@ -3570,28 +3570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>564.3518454562955</v>
+        <v>684.9630615379004</v>
       </c>
       <c r="AB5" t="n">
-        <v>772.1710923995522</v>
+        <v>937.1966792337209</v>
       </c>
       <c r="AC5" t="n">
-        <v>698.476167089873</v>
+        <v>847.7519435314546</v>
       </c>
       <c r="AD5" t="n">
-        <v>564351.8454562954</v>
+        <v>684963.0615379005</v>
       </c>
       <c r="AE5" t="n">
-        <v>772171.0923995522</v>
+        <v>937196.679233721</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.149172483099688e-06</v>
+        <v>1.656721074684173e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.4453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>698476.167089873</v>
+        <v>847751.9435314545</v>
       </c>
     </row>
     <row r="6">
@@ -3676,28 +3676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>540.0159236793697</v>
+        <v>660.7123911069955</v>
       </c>
       <c r="AB6" t="n">
-        <v>738.8736105992664</v>
+        <v>904.0158420860845</v>
       </c>
       <c r="AC6" t="n">
-        <v>668.3565502192973</v>
+        <v>817.7378389115911</v>
       </c>
       <c r="AD6" t="n">
-        <v>540015.9236793697</v>
+        <v>660712.3911069955</v>
       </c>
       <c r="AE6" t="n">
-        <v>738873.6105992664</v>
+        <v>904015.8420860845</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.174404653681021e-06</v>
+        <v>1.693097397104776e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.88541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>668356.5502192973</v>
+        <v>817737.8389115911</v>
       </c>
     </row>
     <row r="7">
@@ -3782,28 +3782,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>524.9147776285126</v>
+        <v>636.9779667692059</v>
       </c>
       <c r="AB7" t="n">
-        <v>718.2115563569389</v>
+        <v>871.5413556182186</v>
       </c>
       <c r="AC7" t="n">
-        <v>649.6664534344823</v>
+        <v>788.3626718539903</v>
       </c>
       <c r="AD7" t="n">
-        <v>524914.7776285126</v>
+        <v>636977.9667692059</v>
       </c>
       <c r="AE7" t="n">
-        <v>718211.5563569389</v>
+        <v>871541.3556182187</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.196182281019026e-06</v>
+        <v>1.724493427464095e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.40364583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>649666.4534344822</v>
+        <v>788362.6718539903</v>
       </c>
     </row>
     <row r="8">
@@ -3888,28 +3888,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>512.3038574928325</v>
+        <v>615.9043605471857</v>
       </c>
       <c r="AB8" t="n">
-        <v>700.9567390727708</v>
+        <v>842.7075178833592</v>
       </c>
       <c r="AC8" t="n">
-        <v>634.0584116946269</v>
+        <v>762.2806951240004</v>
       </c>
       <c r="AD8" t="n">
-        <v>512303.8574928326</v>
+        <v>615904.3605471856</v>
       </c>
       <c r="AE8" t="n">
-        <v>700956.7390727708</v>
+        <v>842707.5178833592</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.211611018071997e-06</v>
+        <v>1.7467364886297e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>634058.4116946269</v>
+        <v>762280.6951240004</v>
       </c>
     </row>
     <row r="9">
@@ -3994,28 +3994,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>492.4489385507754</v>
+        <v>604.5973790374891</v>
       </c>
       <c r="AB9" t="n">
-        <v>673.7903630390449</v>
+        <v>827.236806952974</v>
       </c>
       <c r="AC9" t="n">
-        <v>609.4847564613116</v>
+        <v>748.2864871315319</v>
       </c>
       <c r="AD9" t="n">
-        <v>492448.9385507754</v>
+        <v>604597.3790374891</v>
       </c>
       <c r="AE9" t="n">
-        <v>673790.3630390449</v>
+        <v>827236.8069529741</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.222394794953195e-06</v>
+        <v>1.762283076010199e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.86979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>609484.7564613116</v>
+        <v>748286.4871315319</v>
       </c>
     </row>
     <row r="10">
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>482.9197434223013</v>
+        <v>595.0681839090149</v>
       </c>
       <c r="AB10" t="n">
-        <v>660.7520978658476</v>
+        <v>814.1985417797767</v>
       </c>
       <c r="AC10" t="n">
-        <v>597.6908450169243</v>
+        <v>736.4925756871446</v>
       </c>
       <c r="AD10" t="n">
-        <v>482919.7434223013</v>
+        <v>595068.1839090149</v>
       </c>
       <c r="AE10" t="n">
-        <v>660752.0978658476</v>
+        <v>814198.5417797768</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.228230172053411e-06</v>
+        <v>1.770695731519127e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>597690.8450169243</v>
+        <v>736492.5756871447</v>
       </c>
     </row>
     <row r="11">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>483.8608651052986</v>
+        <v>596.0093055920122</v>
       </c>
       <c r="AB11" t="n">
-        <v>662.0397820718831</v>
+        <v>815.4862259858122</v>
       </c>
       <c r="AC11" t="n">
-        <v>598.8556344496118</v>
+        <v>737.6573651198321</v>
       </c>
       <c r="AD11" t="n">
-        <v>483860.8651052986</v>
+        <v>596009.3055920122</v>
       </c>
       <c r="AE11" t="n">
-        <v>662039.7820718831</v>
+        <v>815486.2259858123</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.228230172053411e-06</v>
+        <v>1.770695731519127e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.73958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>598855.6344496118</v>
+        <v>737657.3651198321</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>761.0049117172601</v>
+        <v>912.2626026521509</v>
       </c>
       <c r="AB2" t="n">
-        <v>1041.240493378786</v>
+        <v>1248.197939134269</v>
       </c>
       <c r="AC2" t="n">
-        <v>941.8659620809244</v>
+        <v>1129.071679680104</v>
       </c>
       <c r="AD2" t="n">
-        <v>761004.9117172601</v>
+        <v>912262.6026521509</v>
       </c>
       <c r="AE2" t="n">
-        <v>1041240.493378786</v>
+        <v>1248197.939134269</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.116497435525225e-07</v>
+        <v>1.334620929252162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.4921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>941865.9620809244</v>
+        <v>1129071.679680104</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>578.3537591370335</v>
+        <v>696.1124375610552</v>
       </c>
       <c r="AB3" t="n">
-        <v>791.329128418373</v>
+        <v>952.4517473843566</v>
       </c>
       <c r="AC3" t="n">
-        <v>715.8057870395299</v>
+        <v>861.5510893884161</v>
       </c>
       <c r="AD3" t="n">
-        <v>578353.7591370335</v>
+        <v>696112.4375610552</v>
       </c>
       <c r="AE3" t="n">
-        <v>791329.1284183729</v>
+        <v>952451.7473843566</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.117160297581804e-06</v>
+        <v>1.635480649259184e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.13802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>715805.78703953</v>
+        <v>861551.0893884161</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>523.0229877971916</v>
+        <v>632.3642426662104</v>
       </c>
       <c r="AB4" t="n">
-        <v>715.6231260498485</v>
+        <v>865.2286547573584</v>
       </c>
       <c r="AC4" t="n">
-        <v>647.3250592830158</v>
+        <v>782.6524463033593</v>
       </c>
       <c r="AD4" t="n">
-        <v>523022.9877971916</v>
+        <v>632364.2426662104</v>
       </c>
       <c r="AE4" t="n">
-        <v>715623.1260498485</v>
+        <v>865228.6547573584</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.19237653254846e-06</v>
+        <v>1.745594387694371e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.3671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>647325.0592830158</v>
+        <v>782652.4463033592</v>
       </c>
     </row>
     <row r="5">
@@ -4821,28 +4821,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>493.1515123090525</v>
+        <v>602.5780185240919</v>
       </c>
       <c r="AB5" t="n">
-        <v>674.7516554504864</v>
+        <v>824.4738288106455</v>
       </c>
       <c r="AC5" t="n">
-        <v>610.3543044741874</v>
+        <v>745.7872037452431</v>
       </c>
       <c r="AD5" t="n">
-        <v>493151.5123090525</v>
+        <v>602578.0185240919</v>
       </c>
       <c r="AE5" t="n">
-        <v>674751.6554504863</v>
+        <v>824473.8288106455</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.231445511096149e-06</v>
+        <v>1.802789902554125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.53385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>610354.3044741874</v>
+        <v>745787.2037452431</v>
       </c>
     </row>
     <row r="6">
@@ -4927,28 +4927,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>465.4616549174109</v>
+        <v>574.8028202778787</v>
       </c>
       <c r="AB6" t="n">
-        <v>636.8651709769499</v>
+        <v>786.4705772149113</v>
       </c>
       <c r="AC6" t="n">
-        <v>576.0836529047903</v>
+        <v>711.4109291439071</v>
       </c>
       <c r="AD6" t="n">
-        <v>465461.6549174109</v>
+        <v>574802.8202778787</v>
       </c>
       <c r="AE6" t="n">
-        <v>636865.1709769499</v>
+        <v>786470.5772149112</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.260855904094347e-06</v>
+        <v>1.845845611515299e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.93489583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>576083.6529047902</v>
+        <v>711410.929143907</v>
       </c>
     </row>
     <row r="7">
@@ -5033,28 +5033,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>450.7180175710283</v>
+        <v>560.059182931496</v>
       </c>
       <c r="AB7" t="n">
-        <v>616.6922759162553</v>
+        <v>766.2976821542168</v>
       </c>
       <c r="AC7" t="n">
-        <v>557.8360306358525</v>
+        <v>693.1633068749693</v>
       </c>
       <c r="AD7" t="n">
-        <v>450718.0175710283</v>
+        <v>560059.1829314961</v>
       </c>
       <c r="AE7" t="n">
-        <v>616692.2759162553</v>
+        <v>766297.6821542168</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.278482822722167e-06</v>
+        <v>1.871650757280207e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.59635416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>557836.0306358525</v>
+        <v>693163.3068749693</v>
       </c>
     </row>
     <row r="8">
@@ -5139,28 +5139,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>446.921590255173</v>
+        <v>556.2627556156407</v>
       </c>
       <c r="AB8" t="n">
-        <v>611.4978365761496</v>
+        <v>761.103242814111</v>
       </c>
       <c r="AC8" t="n">
-        <v>553.1373412959251</v>
+        <v>688.4646175350418</v>
       </c>
       <c r="AD8" t="n">
-        <v>446921.590255173</v>
+        <v>556262.7556156407</v>
       </c>
       <c r="AE8" t="n">
-        <v>611497.8365761496</v>
+        <v>761103.2428141111</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.28154942363413e-06</v>
+        <v>1.876140145653006e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.53125</v>
       </c>
       <c r="AH8" t="n">
-        <v>553137.3412959251</v>
+        <v>688464.6175350419</v>
       </c>
     </row>
   </sheetData>
@@ -5436,28 +5436,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.3008316428125</v>
+        <v>540.8722817215782</v>
       </c>
       <c r="AB2" t="n">
-        <v>591.4930696203713</v>
+        <v>740.0453174524665</v>
       </c>
       <c r="AC2" t="n">
-        <v>535.0418012215395</v>
+        <v>669.4164310149288</v>
       </c>
       <c r="AD2" t="n">
-        <v>432300.8316428125</v>
+        <v>540872.2817215782</v>
       </c>
       <c r="AE2" t="n">
-        <v>591493.0696203713</v>
+        <v>740045.3174524665</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.292608389639403e-06</v>
+        <v>1.999824729193741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.13541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>535041.8012215395</v>
+        <v>669416.4310149287</v>
       </c>
     </row>
     <row r="3">
@@ -5542,28 +5542,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.3452678357861</v>
+        <v>464.2346805263325</v>
       </c>
       <c r="AB3" t="n">
-        <v>497.1450251148237</v>
+        <v>635.1863704847865</v>
       </c>
       <c r="AC3" t="n">
-        <v>449.6982016652891</v>
+        <v>574.5650747753878</v>
       </c>
       <c r="AD3" t="n">
-        <v>363345.2678357861</v>
+        <v>464234.6805263325</v>
       </c>
       <c r="AE3" t="n">
-        <v>497145.0251148237</v>
+        <v>635186.3704847865</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.41649660774842e-06</v>
+        <v>2.191495094492295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>449698.2016652891</v>
+        <v>574565.0747753878</v>
       </c>
     </row>
     <row r="4">
@@ -5648,28 +5648,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>364.0863663069459</v>
+        <v>464.9757789974923</v>
       </c>
       <c r="AB4" t="n">
-        <v>498.1590287380215</v>
+        <v>636.2003741079843</v>
       </c>
       <c r="AC4" t="n">
-        <v>450.615430205852</v>
+        <v>575.4823033159505</v>
       </c>
       <c r="AD4" t="n">
-        <v>364086.3663069459</v>
+        <v>464975.7789974923</v>
       </c>
       <c r="AE4" t="n">
-        <v>498159.0287380215</v>
+        <v>636200.3741079844</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.41894850593196e-06</v>
+        <v>2.195288483627173e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.7265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>450615.430205852</v>
+        <v>575482.3033159506</v>
       </c>
     </row>
   </sheetData>
@@ -5945,28 +5945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>534.2681887290873</v>
+        <v>654.4195792046638</v>
       </c>
       <c r="AB2" t="n">
-        <v>731.0093060681203</v>
+        <v>895.4057392220468</v>
       </c>
       <c r="AC2" t="n">
-        <v>661.242803874983</v>
+        <v>809.9494721805419</v>
       </c>
       <c r="AD2" t="n">
-        <v>534268.1887290874</v>
+        <v>654419.5792046639</v>
       </c>
       <c r="AE2" t="n">
-        <v>731009.3060681203</v>
+        <v>895405.7392220468</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.140657635812392e-06</v>
+        <v>1.723869005057648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.42708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>661242.803874983</v>
+        <v>809949.4721805418</v>
       </c>
     </row>
     <row r="3">
@@ -6051,28 +6051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>432.9515436978889</v>
+        <v>537.2305953505684</v>
       </c>
       <c r="AB3" t="n">
-        <v>592.3834025615167</v>
+        <v>735.0626014997871</v>
       </c>
       <c r="AC3" t="n">
-        <v>535.847162036372</v>
+        <v>664.9092584794873</v>
       </c>
       <c r="AD3" t="n">
-        <v>432951.5436978889</v>
+        <v>537230.5953505684</v>
       </c>
       <c r="AE3" t="n">
-        <v>592383.4025615167</v>
+        <v>735062.6014997871</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.306528825508965e-06</v>
+        <v>1.97454913358395e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.69010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>535847.162036372</v>
+        <v>664909.2584794874</v>
       </c>
     </row>
     <row r="4">
@@ -6157,28 +6157,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>396.7202853129315</v>
+        <v>500.9139961110395</v>
       </c>
       <c r="AB4" t="n">
-        <v>542.8101964289083</v>
+        <v>685.3726282449809</v>
       </c>
       <c r="AC4" t="n">
-        <v>491.0051531206279</v>
+        <v>619.9616265318044</v>
       </c>
       <c r="AD4" t="n">
-        <v>396720.2853129315</v>
+        <v>500913.9961110395</v>
       </c>
       <c r="AE4" t="n">
-        <v>542810.1964289083</v>
+        <v>685372.6282449809</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.363907111175565e-06</v>
+        <v>2.061264590631277e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>491005.1531206279</v>
+        <v>619961.6265318044</v>
       </c>
     </row>
     <row r="5">
@@ -6263,28 +6263,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>394.412426918369</v>
+        <v>498.606137716477</v>
       </c>
       <c r="AB5" t="n">
-        <v>539.6524827579412</v>
+        <v>682.2149145740141</v>
       </c>
       <c r="AC5" t="n">
-        <v>488.1488072105391</v>
+        <v>617.1052806217156</v>
       </c>
       <c r="AD5" t="n">
-        <v>394412.426918369</v>
+        <v>498606.137716477</v>
       </c>
       <c r="AE5" t="n">
-        <v>539652.4827579412</v>
+        <v>682214.914574014</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.368263324238303e-06</v>
+        <v>2.067848109158231e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>488148.8072105391</v>
+        <v>617105.2806217156</v>
       </c>
     </row>
   </sheetData>
@@ -6560,28 +6560,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.0514307220705</v>
+        <v>453.3159820049055</v>
       </c>
       <c r="AB2" t="n">
-        <v>485.7970312775683</v>
+        <v>620.2469254687878</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.4332444328521</v>
+        <v>561.0514294240733</v>
       </c>
       <c r="AD2" t="n">
-        <v>355051.4307220705</v>
+        <v>453315.9820049055</v>
       </c>
       <c r="AE2" t="n">
-        <v>485797.0312775683</v>
+        <v>620246.9254687878</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.42478218102557e-06</v>
+        <v>2.251851125964953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>439433.2444328521</v>
+        <v>561051.4294240733</v>
       </c>
     </row>
     <row r="3">
@@ -6666,28 +6666,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>347.6630248265564</v>
+        <v>445.7569839087991</v>
       </c>
       <c r="AB3" t="n">
-        <v>475.6878883778624</v>
+        <v>609.9043707942349</v>
       </c>
       <c r="AC3" t="n">
-        <v>430.2889039432229</v>
+        <v>551.695953651793</v>
       </c>
       <c r="AD3" t="n">
-        <v>347663.0248265563</v>
+        <v>445756.9839087991</v>
       </c>
       <c r="AE3" t="n">
-        <v>475687.8883778624</v>
+        <v>609904.3707942349</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.45100276245778e-06</v>
+        <v>2.293292440018358e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.1171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>430288.9039432229</v>
+        <v>551695.9536517931</v>
       </c>
     </row>
   </sheetData>
@@ -6963,28 +6963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>805.8311419451813</v>
+        <v>958.1958374885149</v>
       </c>
       <c r="AB2" t="n">
-        <v>1102.573719170334</v>
+        <v>1311.045817468685</v>
       </c>
       <c r="AC2" t="n">
-        <v>997.3456308846502</v>
+        <v>1185.921444713835</v>
       </c>
       <c r="AD2" t="n">
-        <v>805831.1419451813</v>
+        <v>958195.837488515</v>
       </c>
       <c r="AE2" t="n">
-        <v>1102573.719170334</v>
+        <v>1311045.817468685</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.778797618988632e-07</v>
+        <v>1.279848868182595e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.49479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>997345.6308846502</v>
+        <v>1185921.444713835</v>
       </c>
     </row>
     <row r="3">
@@ -7069,28 +7069,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>600.3010541192375</v>
+        <v>727.3284530512707</v>
       </c>
       <c r="AB3" t="n">
-        <v>821.3583856593435</v>
+        <v>995.1628769314781</v>
       </c>
       <c r="AC3" t="n">
-        <v>742.9690941157495</v>
+        <v>900.185928677007</v>
       </c>
       <c r="AD3" t="n">
-        <v>600301.0541192375</v>
+        <v>727328.4530512707</v>
       </c>
       <c r="AE3" t="n">
-        <v>821358.3856593436</v>
+        <v>995162.876931478</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.087311252825616e-06</v>
+        <v>1.585176167270369e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.65885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>742969.0941157495</v>
+        <v>900185.9286770071</v>
       </c>
     </row>
     <row r="4">
@@ -7175,28 +7175,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>540.2840826483385</v>
+        <v>658.8372989279316</v>
       </c>
       <c r="AB4" t="n">
-        <v>739.2405175309482</v>
+        <v>901.4502582434604</v>
       </c>
       <c r="AC4" t="n">
-        <v>668.6884400683765</v>
+        <v>815.4171107900876</v>
       </c>
       <c r="AD4" t="n">
-        <v>540284.0826483385</v>
+        <v>658837.2989279316</v>
       </c>
       <c r="AE4" t="n">
-        <v>739240.5175309482</v>
+        <v>901450.2582434604</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.168169229041509e-06</v>
+        <v>1.703057902144408e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>668688.4400683765</v>
+        <v>815417.1107900876</v>
       </c>
     </row>
     <row r="5">
@@ -7281,28 +7281,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>510.8396996290192</v>
+        <v>629.3075750540404</v>
       </c>
       <c r="AB5" t="n">
-        <v>698.9534136894152</v>
+        <v>861.0463872797299</v>
       </c>
       <c r="AC5" t="n">
-        <v>632.246280874174</v>
+        <v>778.8693285639462</v>
       </c>
       <c r="AD5" t="n">
-        <v>510839.6996290192</v>
+        <v>629307.5750540404</v>
       </c>
       <c r="AE5" t="n">
-        <v>698953.4136894152</v>
+        <v>861046.3872797298</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.206600099063032e-06</v>
+        <v>1.759085740619609e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.8203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>632246.280874174</v>
+        <v>778869.3285639462</v>
       </c>
     </row>
     <row r="6">
@@ -7387,28 +7387,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>491.7885833981618</v>
+        <v>601.7823656792939</v>
       </c>
       <c r="AB6" t="n">
-        <v>672.8868359864259</v>
+        <v>823.3851814866666</v>
       </c>
       <c r="AC6" t="n">
-        <v>608.6674607624864</v>
+        <v>744.8024553939385</v>
       </c>
       <c r="AD6" t="n">
-        <v>491788.5833981618</v>
+        <v>601782.3656792939</v>
       </c>
       <c r="AE6" t="n">
-        <v>672886.8359864259</v>
+        <v>823385.1814866667</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.236177032653692e-06</v>
+        <v>1.802205546569391e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>608667.4607624863</v>
+        <v>744802.4553939386</v>
       </c>
     </row>
     <row r="7">
@@ -7493,28 +7493,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>468.2758906352384</v>
+        <v>578.354924262391</v>
       </c>
       <c r="AB7" t="n">
-        <v>640.7157324413988</v>
+        <v>791.3307225942889</v>
       </c>
       <c r="AC7" t="n">
-        <v>579.5667221873692</v>
+        <v>715.8072290695339</v>
       </c>
       <c r="AD7" t="n">
-        <v>468275.8906352384</v>
+        <v>578354.9242623911</v>
       </c>
       <c r="AE7" t="n">
-        <v>640715.7324413988</v>
+        <v>791330.7225942889</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.254052412420864e-06</v>
+        <v>1.828265817640982e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.84375</v>
       </c>
       <c r="AH7" t="n">
-        <v>579566.7221873692</v>
+        <v>715807.229069534</v>
       </c>
     </row>
     <row r="8">
@@ -7599,28 +7599,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>456.8854131262615</v>
+        <v>566.9644467534141</v>
       </c>
       <c r="AB8" t="n">
-        <v>625.1307786012144</v>
+        <v>775.7457687541046</v>
       </c>
       <c r="AC8" t="n">
-        <v>565.469174468072</v>
+        <v>701.7096813502368</v>
       </c>
       <c r="AD8" t="n">
-        <v>456885.4131262616</v>
+        <v>566964.4467534141</v>
       </c>
       <c r="AE8" t="n">
-        <v>625130.7786012144</v>
+        <v>775745.7687541046</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.267261528393392e-06</v>
+        <v>1.847523206705933e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.58333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>565469.174468072</v>
+        <v>701709.6813502368</v>
       </c>
     </row>
     <row r="9">
@@ -7705,28 +7705,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>457.6958389266168</v>
+        <v>567.7748725537693</v>
       </c>
       <c r="AB9" t="n">
-        <v>626.2396389347235</v>
+        <v>776.8546290876137</v>
       </c>
       <c r="AC9" t="n">
-        <v>566.4722067276463</v>
+        <v>702.7127136098109</v>
       </c>
       <c r="AD9" t="n">
-        <v>457695.8389266168</v>
+        <v>567774.8725537694</v>
       </c>
       <c r="AE9" t="n">
-        <v>626239.6389347236</v>
+        <v>776854.6290876137</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.266423993866149e-06</v>
+        <v>1.846302176602177e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.609375</v>
       </c>
       <c r="AH9" t="n">
-        <v>566472.2067276463</v>
+        <v>702712.7136098109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,28 +8002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.2383963048849</v>
+        <v>429.8981020584543</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.951475264814</v>
+        <v>588.2055490021045</v>
       </c>
       <c r="AC2" t="n">
-        <v>412.4361063974541</v>
+        <v>532.0680369570157</v>
       </c>
       <c r="AD2" t="n">
-        <v>333238.3963048849</v>
+        <v>429898.1020584543</v>
       </c>
       <c r="AE2" t="n">
-        <v>455951.475264814</v>
+        <v>588205.5490021044</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.459327591091048e-06</v>
+        <v>2.338185593590407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>412436.106397454</v>
+        <v>532068.0369570157</v>
       </c>
     </row>
     <row r="3">
@@ -8108,28 +8108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.9317321505478</v>
+        <v>431.5914379041172</v>
       </c>
       <c r="AB3" t="n">
-        <v>458.268372073555</v>
+        <v>590.5224458108454</v>
       </c>
       <c r="AC3" t="n">
-        <v>414.5318818265539</v>
+        <v>534.1638123861155</v>
       </c>
       <c r="AD3" t="n">
-        <v>334931.7321505478</v>
+        <v>431591.4379041172</v>
       </c>
       <c r="AE3" t="n">
-        <v>458268.372073555</v>
+        <v>590522.4458108454</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.458812109780172e-06</v>
+        <v>2.33735967144502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.55989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>414531.8818265539</v>
+        <v>534163.8123861155</v>
       </c>
     </row>
   </sheetData>
@@ -8405,28 +8405,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>638.1647999437698</v>
+        <v>777.958736208166</v>
       </c>
       <c r="AB2" t="n">
-        <v>873.1652331270415</v>
+        <v>1064.437463997192</v>
       </c>
       <c r="AC2" t="n">
-        <v>789.8315687724976</v>
+        <v>962.8490463806629</v>
       </c>
       <c r="AD2" t="n">
-        <v>638164.7999437698</v>
+        <v>777958.736208166</v>
       </c>
       <c r="AE2" t="n">
-        <v>873165.2331270415</v>
+        <v>1064437.463997192</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.018892419171969e-06</v>
+        <v>1.512895477214288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>789831.5687724976</v>
+        <v>962849.0463806629</v>
       </c>
     </row>
     <row r="3">
@@ -8511,28 +8511,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>503.0737294239915</v>
+        <v>618.2533680770407</v>
       </c>
       <c r="AB3" t="n">
-        <v>688.3276706444709</v>
+        <v>845.921533616605</v>
       </c>
       <c r="AC3" t="n">
-        <v>622.6346438321153</v>
+        <v>765.1879697065648</v>
       </c>
       <c r="AD3" t="n">
-        <v>503073.7294239915</v>
+        <v>618253.3680770406</v>
       </c>
       <c r="AE3" t="n">
-        <v>688327.670644471</v>
+        <v>845921.533616605</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.202220907436606e-06</v>
+        <v>1.785109535854066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.94010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>622634.6438321153</v>
+        <v>765187.9697065648</v>
       </c>
     </row>
     <row r="4">
@@ -8617,28 +8617,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>460.7841528770535</v>
+        <v>567.645327362109</v>
       </c>
       <c r="AB4" t="n">
-        <v>630.4652063285066</v>
+        <v>776.6773796412535</v>
       </c>
       <c r="AC4" t="n">
-        <v>570.2944918999877</v>
+        <v>702.5523806018401</v>
       </c>
       <c r="AD4" t="n">
-        <v>460784.1528770535</v>
+        <v>567645.327362109</v>
       </c>
       <c r="AE4" t="n">
-        <v>630465.2063285066</v>
+        <v>776677.3796412535</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273646621890097e-06</v>
+        <v>1.891165522060444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.4296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>570294.4918999878</v>
+        <v>702552.3806018401</v>
       </c>
     </row>
     <row r="5">
@@ -8723,28 +8723,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>432.7212733736924</v>
+        <v>539.6676992047685</v>
       </c>
       <c r="AB5" t="n">
-        <v>592.0683365451412</v>
+        <v>738.3971545105373</v>
       </c>
       <c r="AC5" t="n">
-        <v>535.5621654784015</v>
+        <v>667.9255664309661</v>
       </c>
       <c r="AD5" t="n">
-        <v>432721.2733736924</v>
+        <v>539667.6992047685</v>
       </c>
       <c r="AE5" t="n">
-        <v>592068.3365451412</v>
+        <v>738397.1545105374</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.306759692575432e-06</v>
+        <v>1.940333239803631e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>535562.1654784016</v>
+        <v>667925.5664309661</v>
       </c>
     </row>
     <row r="6">
@@ -8829,28 +8829,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>421.5619210764655</v>
+        <v>528.5083469075416</v>
       </c>
       <c r="AB6" t="n">
-        <v>576.7996184161981</v>
+        <v>723.128436381594</v>
       </c>
       <c r="AC6" t="n">
-        <v>521.7506723779042</v>
+        <v>654.1140733304687</v>
       </c>
       <c r="AD6" t="n">
-        <v>421561.9210764655</v>
+        <v>528508.3469075416</v>
       </c>
       <c r="AE6" t="n">
-        <v>576799.6184161981</v>
+        <v>723128.436381594</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.321960358382148e-06</v>
+        <v>1.962903845018572e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.50520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>521750.6723779042</v>
+        <v>654114.0733304687</v>
       </c>
     </row>
     <row r="7">
@@ -8935,28 +8935,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>422.8208047006884</v>
+        <v>529.7672305317644</v>
       </c>
       <c r="AB7" t="n">
-        <v>578.5220785288855</v>
+        <v>724.8508964942816</v>
       </c>
       <c r="AC7" t="n">
-        <v>523.3087433149248</v>
+        <v>655.6721442674894</v>
       </c>
       <c r="AD7" t="n">
-        <v>422820.8047006884</v>
+        <v>529767.2305317644</v>
       </c>
       <c r="AE7" t="n">
-        <v>578522.0785288855</v>
+        <v>724850.8964942816</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.321711574981057e-06</v>
+        <v>1.962534440677903e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.50520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>523308.7433149248</v>
+        <v>655672.1442674894</v>
       </c>
     </row>
   </sheetData>
@@ -9232,28 +9232,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>720.0321234932675</v>
+        <v>862.1267275612614</v>
       </c>
       <c r="AB2" t="n">
-        <v>985.179716938876</v>
+        <v>1179.599822996209</v>
       </c>
       <c r="AC2" t="n">
-        <v>891.155547462646</v>
+        <v>1067.0204714682</v>
       </c>
       <c r="AD2" t="n">
-        <v>720032.1234932675</v>
+        <v>862126.7275612614</v>
       </c>
       <c r="AE2" t="n">
-        <v>985179.7169388761</v>
+        <v>1179599.822996209</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.442703917136106e-07</v>
+        <v>1.388495295771799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.60677083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>891155.547462646</v>
+        <v>1067020.4714682</v>
       </c>
     </row>
     <row r="3">
@@ -9338,28 +9338,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>549.8317296534465</v>
+        <v>675.0386397690037</v>
       </c>
       <c r="AB3" t="n">
-        <v>752.3040293757952</v>
+        <v>923.6176475349288</v>
       </c>
       <c r="AC3" t="n">
-        <v>680.5051886775051</v>
+        <v>835.4688755597044</v>
       </c>
       <c r="AD3" t="n">
-        <v>549831.7296534465</v>
+        <v>675038.6397690037</v>
       </c>
       <c r="AE3" t="n">
-        <v>752304.0293757952</v>
+        <v>923617.6475349288</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.145175873888828e-06</v>
+        <v>1.683915251054756e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.72135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>680505.1886775051</v>
+        <v>835468.8755597044</v>
       </c>
     </row>
     <row r="4">
@@ -9444,28 +9444,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>505.889425532926</v>
+        <v>614.4647537683126</v>
       </c>
       <c r="AB4" t="n">
-        <v>692.1802302804605</v>
+        <v>840.7377843775365</v>
       </c>
       <c r="AC4" t="n">
-        <v>626.1195205835473</v>
+        <v>760.498950219435</v>
       </c>
       <c r="AD4" t="n">
-        <v>505889.425532926</v>
+        <v>614464.7537683125</v>
       </c>
       <c r="AE4" t="n">
-        <v>692180.2302804604</v>
+        <v>840737.7843775365</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.21676764786949e-06</v>
+        <v>1.789186836673058e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.08072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>626119.5205835473</v>
+        <v>760498.9502194349</v>
       </c>
     </row>
     <row r="5">
@@ -9550,28 +9550,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>474.9474684456953</v>
+        <v>583.4374558265102</v>
       </c>
       <c r="AB5" t="n">
-        <v>649.8440795309061</v>
+        <v>798.2848665057844</v>
       </c>
       <c r="AC5" t="n">
-        <v>587.8238726423697</v>
+        <v>722.0976792463185</v>
       </c>
       <c r="AD5" t="n">
-        <v>474947.4684456953</v>
+        <v>583437.4558265102</v>
       </c>
       <c r="AE5" t="n">
-        <v>649844.0795309062</v>
+        <v>798284.8665057844</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.257743395932647e-06</v>
+        <v>1.849439317239747e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>587823.8726423697</v>
+        <v>722097.6792463185</v>
       </c>
     </row>
     <row r="6">
@@ -9656,28 +9656,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>449.9768109228135</v>
+        <v>558.552049649649</v>
       </c>
       <c r="AB6" t="n">
-        <v>615.6781242804383</v>
+        <v>764.2355559079658</v>
       </c>
       <c r="AC6" t="n">
-        <v>556.9186682087872</v>
+        <v>691.2979870634481</v>
       </c>
       <c r="AD6" t="n">
-        <v>449976.8109228135</v>
+        <v>558552.049649649</v>
       </c>
       <c r="AE6" t="n">
-        <v>615678.1242804383</v>
+        <v>764235.5559079659</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.281972957845067e-06</v>
+        <v>1.885067494326772e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.75260416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>556918.6682087871</v>
+        <v>691297.9870634481</v>
       </c>
     </row>
     <row r="7">
@@ -9762,28 +9762,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>439.3816590497672</v>
+        <v>547.9568977766027</v>
       </c>
       <c r="AB7" t="n">
-        <v>601.1813700626249</v>
+        <v>749.7388016901526</v>
       </c>
       <c r="AC7" t="n">
-        <v>543.8054638671995</v>
+        <v>678.1847827218605</v>
       </c>
       <c r="AD7" t="n">
-        <v>439381.6590497672</v>
+        <v>547956.8977766027</v>
       </c>
       <c r="AE7" t="n">
-        <v>601181.3700626249</v>
+        <v>749738.8016901526</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.293405215930505e-06</v>
+        <v>1.901877972248114e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.54427083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>543805.4638671995</v>
+        <v>678184.7827218606</v>
       </c>
     </row>
     <row r="8">
@@ -9868,28 +9868,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>440.5138458595109</v>
+        <v>549.0890845863464</v>
       </c>
       <c r="AB8" t="n">
-        <v>602.7304780042732</v>
+        <v>751.2879096318007</v>
       </c>
       <c r="AC8" t="n">
-        <v>545.2067271210835</v>
+        <v>679.5860459757445</v>
       </c>
       <c r="AD8" t="n">
-        <v>440513.8458595109</v>
+        <v>549089.0845863464</v>
       </c>
       <c r="AE8" t="n">
-        <v>602730.4780042733</v>
+        <v>751287.9096318007</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.293673349915451e-06</v>
+        <v>1.902272247849681e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.53125</v>
       </c>
       <c r="AH8" t="n">
-        <v>545206.7271210835</v>
+        <v>679586.0459757445</v>
       </c>
     </row>
   </sheetData>
@@ -10165,28 +10165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>897.557576231997</v>
+        <v>1060.444892989659</v>
       </c>
       <c r="AB2" t="n">
-        <v>1228.077873246235</v>
+        <v>1450.947486115316</v>
       </c>
       <c r="AC2" t="n">
-        <v>1110.871844641734</v>
+        <v>1312.471094458056</v>
       </c>
       <c r="AD2" t="n">
-        <v>897557.576231997</v>
+        <v>1060444.892989659</v>
       </c>
       <c r="AE2" t="n">
-        <v>1228077.873246235</v>
+        <v>1450947.486115315</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.170839004287212e-07</v>
+        <v>1.182134522779238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1110871.844641734</v>
+        <v>1312471.094458056</v>
       </c>
     </row>
     <row r="3">
@@ -10271,28 +10271,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>650.4513638942285</v>
+        <v>779.1812920191661</v>
       </c>
       <c r="AB3" t="n">
-        <v>889.976251969005</v>
+        <v>1066.110218793158</v>
       </c>
       <c r="AC3" t="n">
-        <v>805.038167570597</v>
+        <v>964.3621558066283</v>
       </c>
       <c r="AD3" t="n">
-        <v>650451.3638942285</v>
+        <v>779181.2920191661</v>
       </c>
       <c r="AE3" t="n">
-        <v>889976.251969005</v>
+        <v>1066110.218793158</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.036436388441189e-06</v>
+        <v>1.499487671704337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.55729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>805038.167570597</v>
+        <v>964362.1558066283</v>
       </c>
     </row>
     <row r="4">
@@ -10377,28 +10377,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>583.7708082255574</v>
+        <v>703.7481489415737</v>
       </c>
       <c r="AB4" t="n">
-        <v>798.7409739646306</v>
+        <v>962.8992645589934</v>
       </c>
       <c r="AC4" t="n">
-        <v>722.5102564494434</v>
+        <v>871.001510187088</v>
       </c>
       <c r="AD4" t="n">
-        <v>583770.8082255574</v>
+        <v>703748.1489415737</v>
       </c>
       <c r="AE4" t="n">
-        <v>798740.9739646306</v>
+        <v>962899.2645589934</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.122125733216626e-06</v>
+        <v>1.623460659839617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.3046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>722510.2564494434</v>
+        <v>871001.510187088</v>
       </c>
     </row>
     <row r="5">
@@ -10483,28 +10483,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>547.931996926482</v>
+        <v>659.4126832887409</v>
       </c>
       <c r="AB5" t="n">
-        <v>749.7047312484696</v>
+        <v>902.2375245100864</v>
       </c>
       <c r="AC5" t="n">
-        <v>678.1539639153137</v>
+        <v>816.1292414691618</v>
       </c>
       <c r="AD5" t="n">
-        <v>547931.9969264821</v>
+        <v>659412.6832887409</v>
       </c>
       <c r="AE5" t="n">
-        <v>749704.7312484696</v>
+        <v>902237.5245100864</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.169652497754349e-06</v>
+        <v>1.692221076103555e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.19791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>678153.9639153137</v>
+        <v>816129.2414691618</v>
       </c>
     </row>
     <row r="6">
@@ -10589,28 +10589,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>524.250988445934</v>
+        <v>635.8169261542132</v>
       </c>
       <c r="AB6" t="n">
-        <v>717.3033307130232</v>
+        <v>869.9527686272892</v>
       </c>
       <c r="AC6" t="n">
-        <v>648.844907571319</v>
+        <v>786.9256973758794</v>
       </c>
       <c r="AD6" t="n">
-        <v>524250.988445934</v>
+        <v>635816.9261542133</v>
       </c>
       <c r="AE6" t="n">
-        <v>717303.3307130232</v>
+        <v>869952.7686272892</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.193015902301853e-06</v>
+        <v>1.726022607464986e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.67708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>648844.907571319</v>
+        <v>786925.6973758794</v>
       </c>
     </row>
     <row r="7">
@@ -10695,28 +10695,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>509.7454571663615</v>
+        <v>621.1408026740487</v>
       </c>
       <c r="AB7" t="n">
-        <v>697.4562228774365</v>
+        <v>849.8722490168557</v>
       </c>
       <c r="AC7" t="n">
-        <v>630.8919798519701</v>
+        <v>768.7616343738792</v>
       </c>
       <c r="AD7" t="n">
-        <v>509745.4571663615</v>
+        <v>621140.8026740487</v>
       </c>
       <c r="AE7" t="n">
-        <v>697456.2228774366</v>
+        <v>849872.2490168557</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.215038205077747e-06</v>
+        <v>1.757883869654613e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>630891.9798519701</v>
+        <v>768761.6343738793</v>
       </c>
     </row>
     <row r="8">
@@ -10801,28 +10801,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>487.9100890981176</v>
+        <v>599.3906859518253</v>
       </c>
       <c r="AB8" t="n">
-        <v>667.5801089780128</v>
+        <v>820.1127797700814</v>
       </c>
       <c r="AC8" t="n">
-        <v>603.8672003317182</v>
+        <v>741.8423671043397</v>
       </c>
       <c r="AD8" t="n">
-        <v>487910.0890981175</v>
+        <v>599390.6859518252</v>
       </c>
       <c r="AE8" t="n">
-        <v>667580.1089780128</v>
+        <v>820112.7797700814</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.230425583299366e-06</v>
+        <v>1.780145905415314e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>603867.2003317182</v>
+        <v>741842.3671043396</v>
       </c>
     </row>
     <row r="9">
@@ -10907,28 +10907,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>476.2172046634846</v>
+        <v>587.6978015171923</v>
       </c>
       <c r="AB9" t="n">
-        <v>651.5813886408938</v>
+        <v>804.1140594329624</v>
       </c>
       <c r="AC9" t="n">
-        <v>589.3953754092288</v>
+        <v>727.3705421818503</v>
       </c>
       <c r="AD9" t="n">
-        <v>476217.2046634846</v>
+        <v>587697.8015171923</v>
       </c>
       <c r="AE9" t="n">
-        <v>651581.3886408939</v>
+        <v>804114.0594329624</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.240683835447112e-06</v>
+        <v>1.794987262589115e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.6875</v>
       </c>
       <c r="AH9" t="n">
-        <v>589395.3754092288</v>
+        <v>727370.5421818503</v>
       </c>
     </row>
     <row r="10">
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>472.3954121967753</v>
+        <v>583.8760090504829</v>
       </c>
       <c r="AB10" t="n">
-        <v>646.3522435823581</v>
+        <v>798.8849143744267</v>
       </c>
       <c r="AC10" t="n">
-        <v>584.6652926159285</v>
+        <v>722.6404593885501</v>
       </c>
       <c r="AD10" t="n">
-        <v>472395.4121967753</v>
+        <v>583876.0090504829</v>
       </c>
       <c r="AE10" t="n">
-        <v>646352.2435823581</v>
+        <v>798884.9143744267</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.243318982787818e-06</v>
+        <v>1.79879972131266e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.63541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>584665.2926159285</v>
+        <v>722640.4593885501</v>
       </c>
     </row>
     <row r="11">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>473.6244700246933</v>
+        <v>585.105066878401</v>
       </c>
       <c r="AB11" t="n">
-        <v>648.0338947247202</v>
+        <v>800.5665655167886</v>
       </c>
       <c r="AC11" t="n">
-        <v>586.1864493334757</v>
+        <v>724.1616161060971</v>
       </c>
       <c r="AD11" t="n">
-        <v>473624.4700246933</v>
+        <v>585105.066878401</v>
       </c>
       <c r="AE11" t="n">
-        <v>648033.8947247202</v>
+        <v>800566.5655167886</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.243201342281536e-06</v>
+        <v>1.798629522262502e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.6484375</v>
       </c>
       <c r="AH11" t="n">
-        <v>586186.4493334757</v>
+        <v>724161.6161060971</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>571.1398332273207</v>
+        <v>692.4917203792841</v>
       </c>
       <c r="AB2" t="n">
-        <v>781.4587167327544</v>
+        <v>947.4977224014888</v>
       </c>
       <c r="AC2" t="n">
-        <v>706.877393591977</v>
+        <v>857.0698695968955</v>
       </c>
       <c r="AD2" t="n">
-        <v>571139.8332273207</v>
+        <v>692491.7203792841</v>
       </c>
       <c r="AE2" t="n">
-        <v>781458.7167327544</v>
+        <v>947497.7224014888</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.097440868714013e-06</v>
+        <v>1.648010067360831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.1953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>706877.393591977</v>
+        <v>857069.8695968955</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.5664870829241</v>
+        <v>566.7267557684895</v>
       </c>
       <c r="AB3" t="n">
-        <v>631.535630503128</v>
+        <v>775.4205494623448</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.2627562937331</v>
+        <v>701.4155005312343</v>
       </c>
       <c r="AD3" t="n">
-        <v>461566.4870829241</v>
+        <v>566726.7557684896</v>
       </c>
       <c r="AE3" t="n">
-        <v>631535.630503128</v>
+        <v>775420.5494623447</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.270883106436784e-06</v>
+        <v>1.908465607172885e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.08072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>571262.7562937331</v>
+        <v>701415.5005312343</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.1897704732979</v>
+        <v>522.3499496503124</v>
       </c>
       <c r="AB4" t="n">
-        <v>570.8174490752726</v>
+        <v>714.7022455649409</v>
       </c>
       <c r="AC4" t="n">
-        <v>516.3394328828493</v>
+        <v>646.4920663391239</v>
       </c>
       <c r="AD4" t="n">
-        <v>417189.7704732979</v>
+        <v>522349.9496503124</v>
       </c>
       <c r="AE4" t="n">
-        <v>570817.4490752727</v>
+        <v>714702.2455649409</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.329605038110755e-06</v>
+        <v>1.99664742847409e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>516339.4328828494</v>
+        <v>646492.0663391239</v>
       </c>
     </row>
     <row r="5">
@@ -11734,28 +11734,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>403.1736383449583</v>
+        <v>508.3338175219728</v>
       </c>
       <c r="AB5" t="n">
-        <v>551.6399587491699</v>
+        <v>695.524755238838</v>
       </c>
       <c r="AC5" t="n">
-        <v>498.9922153176931</v>
+        <v>629.1448487739676</v>
       </c>
       <c r="AD5" t="n">
-        <v>403173.6383449583</v>
+        <v>508333.8175219728</v>
       </c>
       <c r="AE5" t="n">
-        <v>551639.9587491698</v>
+        <v>695524.755238838</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350909874179724e-06</v>
+        <v>2.028640573003395e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>498992.2153176931</v>
+        <v>629144.8487739676</v>
       </c>
     </row>
   </sheetData>
@@ -12031,28 +12031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>460.199500209795</v>
+        <v>577.9016983818584</v>
       </c>
       <c r="AB2" t="n">
-        <v>629.6652587561083</v>
+        <v>790.7105989496293</v>
       </c>
       <c r="AC2" t="n">
-        <v>569.5708902011655</v>
+        <v>715.2462891551717</v>
       </c>
       <c r="AD2" t="n">
-        <v>460199.500209795</v>
+        <v>577901.6983818584</v>
       </c>
       <c r="AE2" t="n">
-        <v>629665.2587561083</v>
+        <v>790710.5989496293</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.239867719300509e-06</v>
+        <v>1.901643083520557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.83854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>569570.8902011656</v>
+        <v>715246.2891551717</v>
       </c>
     </row>
     <row r="3">
@@ -12137,28 +12137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>380.645092541827</v>
+        <v>482.716247584301</v>
       </c>
       <c r="AB3" t="n">
-        <v>520.8154084920299</v>
+        <v>660.4736658826931</v>
       </c>
       <c r="AC3" t="n">
-        <v>471.1095168745665</v>
+        <v>597.4389861914601</v>
       </c>
       <c r="AD3" t="n">
-        <v>380645.092541827</v>
+        <v>482716.247584301</v>
       </c>
       <c r="AE3" t="n">
-        <v>520815.4084920299</v>
+        <v>660473.6658826931</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.388375034979953e-06</v>
+        <v>2.129415696129056e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.86979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>471109.5168745665</v>
+        <v>597438.9861914602</v>
       </c>
     </row>
     <row r="4">
@@ -12243,28 +12243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>373.0058794824195</v>
+        <v>475.0770345248935</v>
       </c>
       <c r="AB4" t="n">
-        <v>510.3631001658538</v>
+        <v>650.0213575565173</v>
       </c>
       <c r="AC4" t="n">
-        <v>461.6547621851339</v>
+        <v>587.9842315020277</v>
       </c>
       <c r="AD4" t="n">
-        <v>373005.8794824195</v>
+        <v>475077.0345248935</v>
       </c>
       <c r="AE4" t="n">
-        <v>510363.1001658539</v>
+        <v>650021.3575565172</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.404151120112834e-06</v>
+        <v>2.153612215411694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.58333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>461654.7621851339</v>
+        <v>587984.2315020277</v>
       </c>
     </row>
   </sheetData>
@@ -21889,28 +21889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>394.2597310794281</v>
+        <v>493.8618609045959</v>
       </c>
       <c r="AB2" t="n">
-        <v>539.4435575746372</v>
+        <v>675.7235857372771</v>
       </c>
       <c r="AC2" t="n">
-        <v>487.9598215535014</v>
+        <v>611.2334750985195</v>
       </c>
       <c r="AD2" t="n">
-        <v>394259.7310794282</v>
+        <v>493861.8609045959</v>
       </c>
       <c r="AE2" t="n">
-        <v>539443.5575746372</v>
+        <v>675723.5857372771</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.354941018451857e-06</v>
+        <v>2.117068614624137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>487959.8215535014</v>
+        <v>611233.4750985196</v>
       </c>
     </row>
     <row r="3">
@@ -21995,28 +21995,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>352.0066020240258</v>
+        <v>451.6086423406425</v>
       </c>
       <c r="AB3" t="n">
-        <v>481.6309623245419</v>
+        <v>617.9108680176333</v>
       </c>
       <c r="AC3" t="n">
-        <v>435.6647792535879</v>
+        <v>558.9383220173797</v>
       </c>
       <c r="AD3" t="n">
-        <v>352006.6020240258</v>
+        <v>451608.6423406425</v>
       </c>
       <c r="AE3" t="n">
-        <v>481630.9623245419</v>
+        <v>617910.8680176333</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.433384972151701e-06</v>
+        <v>2.239635744944482e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>435664.7792535879</v>
+        <v>558938.3220173797</v>
       </c>
     </row>
   </sheetData>
@@ -22292,28 +22292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.405555198599</v>
+        <v>420.1131339217195</v>
       </c>
       <c r="AB2" t="n">
-        <v>445.2342365026323</v>
+        <v>574.8173239150963</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.7417058609959</v>
+        <v>519.9575652818197</v>
       </c>
       <c r="AD2" t="n">
-        <v>325405.5551985989</v>
+        <v>420113.1339217195</v>
       </c>
       <c r="AE2" t="n">
-        <v>445234.2365026323</v>
+        <v>574817.3239150962</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.454912688261797e-06</v>
+        <v>2.371036483798246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.34114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>402741.7058609959</v>
+        <v>519957.5652818197</v>
       </c>
     </row>
   </sheetData>
@@ -22589,28 +22589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>678.573478543221</v>
+        <v>819.5404635554096</v>
       </c>
       <c r="AB2" t="n">
-        <v>928.4541698918931</v>
+        <v>1121.331417810032</v>
       </c>
       <c r="AC2" t="n">
-        <v>839.843807011022</v>
+        <v>1014.313121092771</v>
       </c>
       <c r="AD2" t="n">
-        <v>678573.478543221</v>
+        <v>819540.4635554096</v>
       </c>
       <c r="AE2" t="n">
-        <v>928454.1698918932</v>
+        <v>1121331.417810032</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.806056656024565e-07</v>
+        <v>1.448727987408305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.6953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>839843.807011022</v>
+        <v>1014313.121092771</v>
       </c>
     </row>
     <row r="3">
@@ -22695,28 +22695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>530.5928512721388</v>
+        <v>646.5829980206433</v>
       </c>
       <c r="AB3" t="n">
-        <v>725.980547215078</v>
+        <v>884.683383120508</v>
       </c>
       <c r="AC3" t="n">
-        <v>656.6939827089677</v>
+        <v>800.2504426964125</v>
       </c>
       <c r="AD3" t="n">
-        <v>530592.8512721388</v>
+        <v>646582.9980206434</v>
       </c>
       <c r="AE3" t="n">
-        <v>725980.547215078</v>
+        <v>884683.3831205079</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.172782809678497e-06</v>
+        <v>1.732646811181477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.33072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>656693.9827089678</v>
+        <v>800250.4426964126</v>
       </c>
     </row>
     <row r="4">
@@ -22801,28 +22801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>478.6048481145743</v>
+        <v>586.4683914244498</v>
       </c>
       <c r="AB4" t="n">
-        <v>654.84826774607</v>
+        <v>802.4319263063269</v>
       </c>
       <c r="AC4" t="n">
-        <v>592.3504681577002</v>
+        <v>725.8489494799322</v>
       </c>
       <c r="AD4" t="n">
-        <v>478604.8481145743</v>
+        <v>586468.3914244499</v>
       </c>
       <c r="AE4" t="n">
-        <v>654848.2677460699</v>
+        <v>802431.9263063269</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.246763378208923e-06</v>
+        <v>1.841944283054188e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.71614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>592350.4681577003</v>
+        <v>725848.9494799322</v>
       </c>
     </row>
     <row r="5">
@@ -22907,28 +22907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>458.6410266930247</v>
+        <v>558.2074638722302</v>
       </c>
       <c r="AB5" t="n">
-        <v>627.5328865354641</v>
+        <v>763.7640784452497</v>
       </c>
       <c r="AC5" t="n">
-        <v>567.6420285924567</v>
+        <v>690.8715067480509</v>
       </c>
       <c r="AD5" t="n">
-        <v>458641.0266930247</v>
+        <v>558207.4638722301</v>
       </c>
       <c r="AE5" t="n">
-        <v>627532.8865354641</v>
+        <v>763764.0784452497</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.279605334421764e-06</v>
+        <v>1.890464358754088e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>567642.0285924566</v>
+        <v>690871.5067480509</v>
       </c>
     </row>
     <row r="6">
@@ -23013,28 +23013,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>433.0463892635271</v>
+        <v>540.8245917188311</v>
       </c>
       <c r="AB6" t="n">
-        <v>592.513174448714</v>
+        <v>739.9800658867734</v>
       </c>
       <c r="AC6" t="n">
-        <v>535.9645486767912</v>
+        <v>669.3574069670841</v>
       </c>
       <c r="AD6" t="n">
-        <v>433046.3892635271</v>
+        <v>540824.5917188311</v>
       </c>
       <c r="AE6" t="n">
-        <v>592513.174448714</v>
+        <v>739980.0658867734</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.30291967665082e-06</v>
+        <v>1.924908520439098e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>535964.5486767913</v>
+        <v>669357.4069670842</v>
       </c>
     </row>
     <row r="7">
@@ -23119,28 +23119,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>430.22943030678</v>
+        <v>537.8370405614918</v>
       </c>
       <c r="AB7" t="n">
-        <v>588.6588869286343</v>
+        <v>735.8923665918468</v>
       </c>
       <c r="AC7" t="n">
-        <v>532.4781089481015</v>
+        <v>665.6598319557435</v>
       </c>
       <c r="AD7" t="n">
-        <v>430229.43030678</v>
+        <v>537837.0405614917</v>
       </c>
       <c r="AE7" t="n">
-        <v>588658.8869286343</v>
+        <v>735892.3665918468</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.308508225421671e-06</v>
+        <v>1.933164935119666e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.4921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>532478.1089481015</v>
+        <v>665659.8319557435</v>
       </c>
     </row>
   </sheetData>
@@ -23416,28 +23416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>849.8582579582127</v>
+        <v>1011.652998876475</v>
       </c>
       <c r="AB2" t="n">
-        <v>1162.813561638638</v>
+        <v>1384.188264043207</v>
       </c>
       <c r="AC2" t="n">
-        <v>1051.836267334929</v>
+        <v>1252.083278843353</v>
       </c>
       <c r="AD2" t="n">
-        <v>849858.2579582126</v>
+        <v>1011652.998876475</v>
       </c>
       <c r="AE2" t="n">
-        <v>1162813.561638638</v>
+        <v>1384188.264043207</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.477938478749091e-07</v>
+        <v>1.231139957524672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.43229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1051836.267334929</v>
+        <v>1252083.278843353</v>
       </c>
     </row>
     <row r="3">
@@ -23522,28 +23522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>629.4524271727521</v>
+        <v>757.2165775827596</v>
       </c>
       <c r="AB3" t="n">
-        <v>861.2445803389754</v>
+        <v>1036.057127486455</v>
       </c>
       <c r="AC3" t="n">
-        <v>779.048606355783</v>
+        <v>937.1772893544585</v>
       </c>
       <c r="AD3" t="n">
-        <v>629452.4271727521</v>
+        <v>757216.5775827595</v>
       </c>
       <c r="AE3" t="n">
-        <v>861244.5803389754</v>
+        <v>1036057.127486455</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.061735109351737e-06</v>
+        <v>1.541818828605864e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.08854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>779048.6063557831</v>
+        <v>937177.2893544585</v>
       </c>
     </row>
     <row r="4">
@@ -23628,28 +23628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>557.4961804276544</v>
+        <v>676.8165993429758</v>
       </c>
       <c r="AB4" t="n">
-        <v>762.7908690567702</v>
+        <v>926.0503302620778</v>
       </c>
       <c r="AC4" t="n">
-        <v>689.9911790977</v>
+        <v>837.6693864616659</v>
       </c>
       <c r="AD4" t="n">
-        <v>557496.1804276544</v>
+        <v>676816.5993429758</v>
       </c>
       <c r="AE4" t="n">
-        <v>762790.8690567702</v>
+        <v>926050.3302620777</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.145219174458963e-06</v>
+        <v>1.663051801253316e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.97916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>689991.1790976999</v>
+        <v>837669.3864616659</v>
       </c>
     </row>
     <row r="5">
@@ -23734,28 +23734,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>519.6517954118375</v>
+        <v>638.8868734725872</v>
       </c>
       <c r="AB5" t="n">
-        <v>711.0105119016956</v>
+        <v>874.1532059848055</v>
       </c>
       <c r="AC5" t="n">
-        <v>643.1526665553181</v>
+        <v>790.7252508873451</v>
       </c>
       <c r="AD5" t="n">
-        <v>519651.7954118375</v>
+        <v>638886.8734725872</v>
       </c>
       <c r="AE5" t="n">
-        <v>711010.5119016956</v>
+        <v>874153.2059848055</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.196937066454914e-06</v>
+        <v>1.738154921563473e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.80729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>643152.6665553181</v>
+        <v>790725.2508873451</v>
       </c>
     </row>
     <row r="6">
@@ -23840,28 +23840,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>507.6003550852437</v>
+        <v>618.3065398138377</v>
       </c>
       <c r="AB6" t="n">
-        <v>694.5211995748263</v>
+        <v>845.9942855326626</v>
       </c>
       <c r="AC6" t="n">
-        <v>628.2370710540298</v>
+        <v>765.2537782818615</v>
       </c>
       <c r="AD6" t="n">
-        <v>507600.3550852437</v>
+        <v>618306.5398138377</v>
       </c>
       <c r="AE6" t="n">
-        <v>694521.1995748263</v>
+        <v>845994.2855326626</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.216485480677236e-06</v>
+        <v>1.766542523001808e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>628237.0710540297</v>
+        <v>765253.7782818616</v>
       </c>
     </row>
     <row r="7">
@@ -23946,28 +23946,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>493.4795058461563</v>
+        <v>595.827389443187</v>
       </c>
       <c r="AB7" t="n">
-        <v>675.2004306780054</v>
+        <v>815.2373202854154</v>
       </c>
       <c r="AC7" t="n">
-        <v>610.760249223852</v>
+        <v>737.4322146301399</v>
       </c>
       <c r="AD7" t="n">
-        <v>493479.5058461563</v>
+        <v>595827.389443187</v>
       </c>
       <c r="AE7" t="n">
-        <v>675200.4306780054</v>
+        <v>815237.3202854154</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.234302057231805e-06</v>
+        <v>1.792415203438931e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>610760.2492238521</v>
+        <v>737432.2146301399</v>
       </c>
     </row>
     <row r="8">
@@ -24052,28 +24052,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>472.325998320801</v>
+        <v>583.1174343954157</v>
       </c>
       <c r="AB8" t="n">
-        <v>646.2572684549261</v>
+        <v>797.8469990654118</v>
       </c>
       <c r="AC8" t="n">
-        <v>584.5793817813601</v>
+        <v>721.7016012599044</v>
       </c>
       <c r="AD8" t="n">
-        <v>472325.998320801</v>
+        <v>583117.4343954157</v>
       </c>
       <c r="AE8" t="n">
-        <v>646257.2684549261</v>
+        <v>797846.9990654117</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.246353749495081e-06</v>
+        <v>1.809916297529555e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.77864583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>584579.3817813601</v>
+        <v>721701.6012599043</v>
       </c>
     </row>
     <row r="9">
@@ -24158,28 +24158,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>464.4231596685954</v>
+        <v>575.2145957432101</v>
       </c>
       <c r="AB9" t="n">
-        <v>635.4442559623434</v>
+        <v>787.0339865728291</v>
       </c>
       <c r="AC9" t="n">
-        <v>574.7983480249112</v>
+        <v>711.9205675034555</v>
       </c>
       <c r="AD9" t="n">
-        <v>464423.1596685954</v>
+        <v>575214.5957432101</v>
       </c>
       <c r="AE9" t="n">
-        <v>635444.2559623434</v>
+        <v>787033.9865728291</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.255392518692539e-06</v>
+        <v>1.823042118097522e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.609375</v>
       </c>
       <c r="AH9" t="n">
-        <v>574798.3480249112</v>
+        <v>711920.5675034554</v>
       </c>
     </row>
   </sheetData>
@@ -24455,28 +24455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.8771853932279</v>
+        <v>420.4112296308627</v>
       </c>
       <c r="AB2" t="n">
-        <v>439.0383211573474</v>
+        <v>575.2251916154006</v>
       </c>
       <c r="AC2" t="n">
-        <v>397.1371199802432</v>
+        <v>520.326506661253</v>
       </c>
       <c r="AD2" t="n">
-        <v>320877.1853932279</v>
+        <v>420411.2296308627</v>
       </c>
       <c r="AE2" t="n">
-        <v>439038.3211573474</v>
+        <v>575225.1916154006</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410145382646136e-06</v>
+        <v>2.350628337760414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.15104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>397137.1199802432</v>
+        <v>520326.506661253</v>
       </c>
     </row>
   </sheetData>
@@ -24752,28 +24752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>496.7974280497535</v>
+        <v>615.8502018324202</v>
       </c>
       <c r="AB2" t="n">
-        <v>679.7401582133642</v>
+        <v>842.6334155405032</v>
       </c>
       <c r="AC2" t="n">
-        <v>614.8667115347838</v>
+        <v>762.2136650047432</v>
       </c>
       <c r="AD2" t="n">
-        <v>496797.4280497535</v>
+        <v>615850.2018324202</v>
       </c>
       <c r="AE2" t="n">
-        <v>679740.1582133642</v>
+        <v>842633.4155405032</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.189187932558326e-06</v>
+        <v>1.809832989032224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.60677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>614866.7115347838</v>
+        <v>762213.6650047433</v>
       </c>
     </row>
     <row r="3">
@@ -24858,28 +24858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>411.5093357756982</v>
+        <v>514.5917762607123</v>
       </c>
       <c r="AB3" t="n">
-        <v>563.0452277189245</v>
+        <v>704.087170466836</v>
       </c>
       <c r="AC3" t="n">
-        <v>509.3089814243699</v>
+        <v>636.8900791100308</v>
       </c>
       <c r="AD3" t="n">
-        <v>411509.3357756982</v>
+        <v>514591.7762607124</v>
       </c>
       <c r="AE3" t="n">
-        <v>563045.2277189245</v>
+        <v>704087.1704668361</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.344884441107675e-06</v>
+        <v>2.04678853637245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.29947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>509308.9814243699</v>
+        <v>636890.0791100308</v>
       </c>
     </row>
     <row r="4">
@@ -24964,28 +24964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>383.6197025157489</v>
+        <v>486.7873943467836</v>
       </c>
       <c r="AB4" t="n">
-        <v>524.88540108888</v>
+        <v>666.0439884894408</v>
       </c>
       <c r="AC4" t="n">
-        <v>474.7910750902439</v>
+        <v>602.4776850266169</v>
       </c>
       <c r="AD4" t="n">
-        <v>383619.7025157489</v>
+        <v>486787.3943467836</v>
       </c>
       <c r="AE4" t="n">
-        <v>524885.40108888</v>
+        <v>666043.9884894409</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.386035976762185e-06</v>
+        <v>2.109417330979071e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.54427083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>474791.0750902438</v>
+        <v>602477.6850266169</v>
       </c>
     </row>
     <row r="5">
@@ -25070,28 +25070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>384.9158027672432</v>
+        <v>488.083494598278</v>
       </c>
       <c r="AB5" t="n">
-        <v>526.6587826328821</v>
+        <v>667.817370033443</v>
       </c>
       <c r="AC5" t="n">
-        <v>476.395207588643</v>
+        <v>604.0818175250162</v>
       </c>
       <c r="AD5" t="n">
-        <v>384915.8027672432</v>
+        <v>488083.494598278</v>
       </c>
       <c r="AE5" t="n">
-        <v>526658.7826328821</v>
+        <v>667817.370033443</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.385931464925602e-06</v>
+        <v>2.109258273722927e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.54427083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>476395.207588643</v>
+        <v>604081.8175250161</v>
       </c>
     </row>
   </sheetData>
@@ -25367,28 +25367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.2977672093228</v>
+        <v>739.7867134572298</v>
       </c>
       <c r="AB2" t="n">
-        <v>833.6680854161679</v>
+        <v>1012.20881843857</v>
       </c>
       <c r="AC2" t="n">
-        <v>754.1039734045546</v>
+        <v>915.6050294507914</v>
       </c>
       <c r="AD2" t="n">
-        <v>609297.7672093229</v>
+        <v>739786.7134572298</v>
       </c>
       <c r="AE2" t="n">
-        <v>833668.0854161679</v>
+        <v>1012208.81843857</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.055605461506195e-06</v>
+        <v>1.575924682149943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.02864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>754103.9734045547</v>
+        <v>915605.0294507914</v>
       </c>
     </row>
     <row r="3">
@@ -25473,28 +25473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>482.4962213738906</v>
+        <v>596.7379766617557</v>
       </c>
       <c r="AB3" t="n">
-        <v>660.1726163147383</v>
+        <v>816.4832258901337</v>
       </c>
       <c r="AC3" t="n">
-        <v>597.1666683717451</v>
+        <v>738.5592127525833</v>
       </c>
       <c r="AD3" t="n">
-        <v>482496.2213738906</v>
+        <v>596737.9766617557</v>
       </c>
       <c r="AE3" t="n">
-        <v>660172.6163147383</v>
+        <v>816483.2258901336</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.235744886948748e-06</v>
+        <v>1.844856756807993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.51041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>597166.6683717452</v>
+        <v>738559.2127525833</v>
       </c>
     </row>
     <row r="4">
@@ -25579,28 +25579,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>430.5298954924569</v>
+        <v>536.6054296272908</v>
       </c>
       <c r="AB4" t="n">
-        <v>589.069996651266</v>
+        <v>734.2072221768333</v>
       </c>
       <c r="AC4" t="n">
-        <v>532.8499829358012</v>
+        <v>664.135515358584</v>
       </c>
       <c r="AD4" t="n">
-        <v>430529.895492457</v>
+        <v>536605.4296272908</v>
       </c>
       <c r="AE4" t="n">
-        <v>589069.996651266</v>
+        <v>734207.2221768333</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.311916117257372e-06</v>
+        <v>1.9585736011125e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.9609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>532849.9829358013</v>
+        <v>664135.515358584</v>
       </c>
     </row>
     <row r="5">
@@ -25685,28 +25685,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>414.4673789791269</v>
+        <v>520.5429131139606</v>
       </c>
       <c r="AB5" t="n">
-        <v>567.0925529295115</v>
+        <v>712.2297784550789</v>
       </c>
       <c r="AC5" t="n">
-        <v>512.9700355973151</v>
+        <v>644.2555680200978</v>
       </c>
       <c r="AD5" t="n">
-        <v>414467.3789791269</v>
+        <v>520542.9131139606</v>
       </c>
       <c r="AE5" t="n">
-        <v>567092.5529295115</v>
+        <v>712229.7784550788</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.334103377869064e-06</v>
+        <v>1.991697199750735e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.55729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>512970.0355973152</v>
+        <v>644255.5680200978</v>
       </c>
     </row>
     <row r="6">
@@ -25791,28 +25791,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>413.243639621918</v>
+        <v>519.3191737567519</v>
       </c>
       <c r="AB6" t="n">
-        <v>565.4181787534084</v>
+        <v>710.5554042789756</v>
       </c>
       <c r="AC6" t="n">
-        <v>511.4554613425803</v>
+        <v>642.7409937653629</v>
       </c>
       <c r="AD6" t="n">
-        <v>413243.639621918</v>
+        <v>519319.1737567519</v>
       </c>
       <c r="AE6" t="n">
-        <v>565418.1787534084</v>
+        <v>710555.4042789757</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.334782579724524e-06</v>
+        <v>1.99271118746415e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.54427083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>511455.4613425803</v>
+        <v>642740.9937653629</v>
       </c>
     </row>
   </sheetData>
